--- a/Grafico eliminação de Gaus.xlsx
+++ b/Grafico eliminação de Gaus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fátima Batista\Desktop\phil\Upe\Calculo numerico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fátima Batista\Desktop\phil\Workbench\projetos\Calculo-Numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sx4</t>
   </si>
@@ -67,13 +67,25 @@
   <si>
     <t>x4</t>
   </si>
+  <si>
+    <t>Sx0</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t>Nº Int</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,13 +112,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,13 +179,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -159,13 +199,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Valores</a:t>
+              <a:t>Valores x Interações</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> x Interações</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -183,13 +218,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -210,7 +251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$B$1</c:f>
+              <c:f>Plan1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -220,52 +261,61 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$B$2:$B$11</c:f>
+              <c:f>Plan1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2618999999999998</c:v>
+                  <c:v>12.371700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4286000000000003</c:v>
+                  <c:v>-2.9462999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1418999999999997</c:v>
+                  <c:v>-26.242799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0476000000000001</c:v>
+                  <c:v>-41.801200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78569999999999995</c:v>
+                  <c:v>-37.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-6.1121999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.666700000000001</c:v>
+                  <c:v>57.294400000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28.571400000000001</c:v>
+                  <c:v>152.75720000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-45.071399999999997</c:v>
+                  <c:v>276.71899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>421.76760000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,7 +327,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$C$1</c:f>
+              <c:f>Plan1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,52 +337,61 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$C$2:$C$11</c:f>
+              <c:f>Plan1!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3571</c:v>
+                  <c:v>5.6142000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5714000000000001</c:v>
+                  <c:v>4.5190999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1429</c:v>
+                  <c:v>-1.9347000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0713999999999997</c:v>
+                  <c:v>-12.416499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3571000000000009</c:v>
+                  <c:v>-25.595600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>-40.141300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>-54.722900000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.357099999999999</c:v>
+                  <c:v>-68.009699999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.071400000000001</c:v>
+                  <c:v>-78.671000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-85.376199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,7 +403,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$D$1</c:f>
+              <c:f>Plan1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -354,52 +413,61 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$2:$D$11</c:f>
+              <c:f>Plan1!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.47620000000000001</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95240000000000002</c:v>
+                  <c:v>5.1185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4286000000000001</c:v>
+                  <c:v>6.859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9048</c:v>
+                  <c:v>5.4714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3809999999999998</c:v>
+                  <c:v>0.95569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8571</c:v>
+                  <c:v>-6.6881000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3332999999999999</c:v>
+                  <c:v>-17.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8094999999999999</c:v>
+                  <c:v>-31.3599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2857000000000003</c:v>
+                  <c:v>-48.387900000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7618999999999998</c:v>
+                  <c:v>-68.5441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-91.828199999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,7 +479,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$E$1</c:f>
+              <c:f>Plan1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -421,52 +489,61 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$E$2:$E$11</c:f>
+              <c:f>Plan1!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.0548999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3.9998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5.9447000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>7.8895999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>9.8345000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>11.779400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>13.724299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>15.6692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>17.614100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.559000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,11 +559,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1336543440"/>
-        <c:axId val="-1282844880"/>
+        <c:axId val="405874432"/>
+        <c:axId val="405881504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1336543440"/>
+        <c:axId val="405874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,9 +577,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -516,9 +593,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -529,7 +605,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1282844880"/>
+        <c:crossAx val="405881504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1282844880"/>
+        <c:axId val="405881504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,9 +623,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -575,9 +651,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -588,7 +663,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1336543440"/>
+        <c:crossAx val="405874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,9 +693,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -637,17 +711,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -710,35 +795,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -746,26 +829,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -774,9 +865,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -795,14 +885,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -811,45 +893,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -861,31 +933,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -903,21 +973,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -927,20 +994,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -954,14 +1021,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -975,9 +1042,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -991,12 +1057,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1008,9 +1068,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1025,108 +1085,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1138,12 +1205,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1159,7 +1233,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1168,9 +1241,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1180,7 +1252,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1188,9 +1260,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1201,9 +1273,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1215,12 +1286,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1229,16 +1294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1523,199 +1588,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.47620000000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.2618999999999998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.3571</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.95240000000000002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.4286000000000003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.5714000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.4286000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>12.371700000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.6142000000000003</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.1185</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.0548999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.1418999999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.1429</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.9048</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-2.9462999999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.5190999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.859</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.9998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5.0476000000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.0713999999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="A6" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-26.242799999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1.9347000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.4714</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.9447000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.78569999999999995</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.3571000000000009</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.8571</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-41.801200000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-12.416499999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.8895999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.3332999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-37.76</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-25.595600000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-6.6881000000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9.8345000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-15.666700000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.8094999999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-6.1121999999999996</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-40.141300000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-17.46</v>
+      </c>
+      <c r="E9" s="4">
+        <v>11.779400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-28.571400000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>17.357099999999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4.2857000000000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>57.294400000000003</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-54.722900000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-31.3599</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13.724299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>152.75720000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-68.009699999999995</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-48.387900000000002</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15.6692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>276.71899999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-78.671000000000006</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-68.5441</v>
+      </c>
+      <c r="E12" s="4">
+        <v>17.614100000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>-45.071399999999997</v>
-      </c>
-      <c r="C11" s="1">
-        <v>21.071400000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4.7618999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="B13" s="4">
+        <v>421.76760000000002</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-85.376199999999997</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-91.828199999999995</v>
+      </c>
+      <c r="E13" s="4">
+        <v>19.559000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Grafico eliminação de Gaus.xlsx
+++ b/Grafico eliminação de Gaus.xlsx
@@ -96,12 +96,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,22 +155,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,11 +595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="405874432"/>
-        <c:axId val="405881504"/>
+        <c:axId val="-47366192"/>
+        <c:axId val="-65922960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="405874432"/>
+        <c:axId val="-47366192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +641,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405881504"/>
+        <c:crossAx val="-65922960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405881504"/>
+        <c:axId val="-65922960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +699,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405874432"/>
+        <c:crossAx val="-47366192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,7 +1627,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,27 +1636,27 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1628,16 +1664,16 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>0.02</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>0.25</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="11">
         <v>0.11</v>
       </c>
     </row>
@@ -1645,16 +1681,16 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>12.371700000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>5.6142000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>5.1185</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>2.0548999999999999</v>
       </c>
     </row>
@@ -1662,16 +1698,16 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>-2.9462999999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>4.5190999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>6.859</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="11">
         <v>3.9998</v>
       </c>
     </row>
@@ -1679,16 +1715,16 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>-26.242799999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>-1.9347000000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>5.4714</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="11">
         <v>5.9447000000000001</v>
       </c>
     </row>
@@ -1696,16 +1732,16 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>-41.801200000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>-12.416499999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>0.95569999999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <v>7.8895999999999997</v>
       </c>
     </row>
@@ -1713,16 +1749,16 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>-37.76</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>-25.595600000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>-6.6881000000000004</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <v>9.8345000000000002</v>
       </c>
     </row>
@@ -1730,16 +1766,16 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>-6.1121999999999996</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>-40.141300000000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>-17.46</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <v>11.779400000000001</v>
       </c>
     </row>
@@ -1747,16 +1783,16 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>57.294400000000003</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>-54.722900000000003</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>-31.3599</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="11">
         <v>13.724299999999999</v>
       </c>
     </row>
@@ -1764,16 +1800,16 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>152.75720000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>-68.009699999999995</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>-48.387900000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>15.6692</v>
       </c>
     </row>
@@ -1781,16 +1817,16 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>276.71899999999999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>-78.671000000000006</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>-68.5441</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="11">
         <v>17.614100000000001</v>
       </c>
     </row>
@@ -1798,16 +1834,16 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>421.76760000000002</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>-85.376199999999997</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>-91.828199999999995</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="11">
         <v>19.559000000000001</v>
       </c>
     </row>
